--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -29,6 +29,18 @@
     <t>Университеты</t>
   </si>
   <si>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
+  </si>
+  <si>
     <t>Лингвистика</t>
   </si>
   <si>
@@ -39,18 +51,6 @@
   </si>
   <si>
     <t>Самарский Медицинский Институт;Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;</t>
-  </si>
-  <si>
-    <t>Математика</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений;</t>
-  </si>
-  <si>
-    <t>Физика</t>
-  </si>
-  <si>
-    <t>Московский Придуманный Институт;Московский Выдуманный Университет;</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -146,13 +146,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>4.329999923706055</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -180,13 +180,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>4.539999961853027</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
